--- a/loaded_influencer_data/miaafosterrr/miaafosterrr_video.xlsx
+++ b/loaded_influencer_data/miaafosterrr/miaafosterrr_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7412593537344146721</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11700</v>
+        <v>12200</v>
       </c>
       <c r="C2" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D2" t="n">
         <v>48</v>
@@ -528,23 +528,24 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>&lt;3의 올리브 그린에 속삭이는 홀터 넥 드레스를 입고 @PEPPERMAYO #peppermayo #summerdress</t>
+          <t>Wearing the whisked away halter neck dress in olive green from @PEPPERMAYO &lt;3
+#peppermayo</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.239316239316239</v>
+        <v>2.163934426229508</v>
       </c>
       <c r="I2" t="n">
-        <v>1.829059829059829</v>
+        <v>1.770491803278688</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4102564102564102</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2051282051282051</v>
+        <v>0.1967213114754098</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -558,7 +559,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/photo/7434708596404915489</t>
         </is>
@@ -570,21 +571,22 @@
         <v>1100000</v>
       </c>
       <c r="D3" t="n">
-        <v>6447</v>
+        <v>6425</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>152200</v>
+        <v>152100</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>iOS 18.1의 새로운 이모티콘이 가장 귀엽습니다. 🥹 #ios18 #newemojis #iphone16</t>
+          <t>New emojis for iOS 18.1 are the cutest 🥹
+#ios18 #newemojis #iphone16</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9.297873949579833</v>
+        <v>9.297689075630252</v>
       </c>
       <c r="I3" t="n">
         <v>9.243697478991598</v>
@@ -593,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.05417647058823529</v>
+        <v>0.05399159663865546</v>
       </c>
       <c r="L3" t="n">
-        <v>1.278991596638656</v>
+        <v>1.278151260504202</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -610,16 +612,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/photo/7398252322926775585</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33300</v>
+        <v>33700</v>
       </c>
       <c r="C4" t="n">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D4" t="n">
         <v>80</v>
@@ -628,27 +630,28 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>올리브 그린의 홀터넥 맥시 드레스를 입고 🫶🏼 @PEPPERMAYO #peppermayo #summerdress #holiday #holidayoutfit</t>
+          <t>Wearing @PEPPERMAYO whisked away halterneck maxi dress in olive green 🫶🏼
+#peppermayo #summerdress</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.426426426426426</v>
+        <v>1.412462908011869</v>
       </c>
       <c r="I4" t="n">
-        <v>1.186186186186186</v>
+        <v>1.175074183976261</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2402402402402402</v>
+        <v>0.2373887240356083</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1081081081081081</v>
+        <v>0.1097922848664689</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -662,19 +665,19 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@miaafosterrr/video/7482085663995677974</t>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@miaafosterrr/video/7488722654879436054</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>811</v>
+        <v>481</v>
       </c>
       <c r="C5" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -684,47 +687,48 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>세인트 패디의 주말 ☘️🇮🇪 #stpatricksday #paddysday #stpaddysday #irish #ireland #ootd #tellmema</t>
+          <t>AHHHHH the countdown is on !!!! 😍😍 @Sephora UK @Liverpool ONE
+Sephora will officially open their Liverpool One store on May 22nd 2025! ❤️</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10.60419235511714</v>
+        <v>9.563409563409564</v>
       </c>
       <c r="I5" t="n">
-        <v>9.247842170160297</v>
+        <v>9.355509355509357</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.356350184956843</v>
+        <v>0.2079002079002079</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1233045622688039</v>
+        <v>0.2079002079002079</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-04-03</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@miaafosterrr/video/7480905968201616662</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@miaafosterrr/video/7482085663995677974</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>484</v>
+        <v>876</v>
       </c>
       <c r="C6" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -734,94 +738,97 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>시도 ❤️ 마스카라 감사합니다! #ThrillSeekerExtreme @rimmellondon @Community X SEEN #rimmel</t>
+          <t>St Paddy’s Weekend ☘️🇮🇪
+#stpatricksday #paddysday #stpaddysday #irish #ireland #ootd #tellmema</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8.884297520661157</v>
+        <v>10.38812785388128</v>
       </c>
       <c r="I6" t="n">
-        <v>7.851239669421488</v>
+        <v>9.1324200913242</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.03305785123967</v>
+        <v>1.255707762557078</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4132231404958678</v>
+        <v>0.228310502283105</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@miaafosterrr/video/7480905968201616662</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>537</v>
+      </c>
+      <c r="C7" t="n">
+        <v>41</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Trying out the
+#ThrillSeekerExtreme Mascara from @rimmellondon ❤️
+Thank you! @Community X SEEN</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8.56610800744879</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.635009310986965</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.931098696461825</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.5586592178770949</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7470545531463355670</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>622</v>
-      </c>
-      <c r="C7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>The cutest mug 🤭 I’m literally just a girl with my cute new mug watching love island 🎀🤍 Buy on TikTok shop through the link! - #imjustagirl #justagirl #mug #coffee #sadhamster #valentines #galentines #gift #present #office #work #girlythings #girl #hamster - Sad hamster Literally just a girl Office mugs Funny office mugs Girly coffee mug Literally just a girl meme Sad hamster meme Hamster with bow Love island Love island all stars recoupling TikTok shop finds TikTok made me buy it Valentines Galentines Cute gifts for girls Galentines gifts presents Valentines gifts presents Office accessories Small valentines gifts #ConSantanderConecto</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7.07395498392283</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5.627009646302251</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.446945337620579</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.1607717041800643</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@miaafosterrr/video/7467524449479298336</t>
-        </is>
-      </c>
       <c r="B8" t="n">
-        <v>811</v>
+        <v>648</v>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="n">
         <v>9</v>
@@ -830,27 +837,29 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>가장 귀여운 머그잔🤭 나는 말 그대로 사랑의 섬을 보고 있는 귀여운 새 머그잔을 가진 소녀일 뿐입니다🎀🤍 링크를 통해 TikTok 샵에서 구매하세요! - - 슬픈 햄스터 말 그대로 그냥 여자 사무실 머그잔 재미있는 사무실 머그잔 여자 커피 머그 말 그대로 그냥 여자 밈 슬픈 햄스터 밈 활을 가진 햄스터 사랑의 섬 사랑의 섬 모든 별 재결합 TikTok 상점 찾기 틱톡이 사게 만들었다 발렌타인 갈렌타인 소녀들을 위한 귀여운 선물 갈렌타인 선물 발렌타인 선물 선물 사무실 액세서리 작은 발렌타인 선물</t>
+          <t>The cutest mug 🤭
+I’m literally just a girl with my cute new mug watching love island 🎀🤍
+Buy on TikTok shop through the link!</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5.425400739827373</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="I8" t="n">
-        <v>4.315659679408138</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1.109741060419235</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1233045622688039</v>
+        <v>0.308641975308642</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -862,16 +871,16 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@miaafosterrr/video/7460509107649350945</t>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@miaafosterrr/video/7467524449479298336</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3044</v>
+        <v>848</v>
       </c>
       <c r="C9" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
         <v>14</v>
@@ -880,27 +889,28 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>가장 귀여운 카우보이 부츠 🤎 @AJVOYAGE #boots #cowboyboots #ajvoyage #tiktokshop #fashion</t>
+          <t>The cutest cowboy boots from @AJVOYAGE 🤎
+#boots #cowboyboots #ajvoyage #tiktokshop #fashion</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2.069645203679369</v>
+        <v>7.547169811320755</v>
       </c>
       <c r="I9" t="n">
-        <v>1.609724047306176</v>
+        <v>5.89622641509434</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.4599211563731931</v>
+        <v>1.650943396226415</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0328515111695138</v>
+        <v>0.2358490566037736</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -912,13 +922,13 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@miaafosterrr/video/7452118552665935136</t>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@miaafosterrr/video/7460509107649350945</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>839</v>
+        <v>3175</v>
       </c>
       <c r="C10" t="n">
         <v>64</v>
@@ -930,548 +940,549 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Make an iced vanilla matcha with me using @Super-Self Matcha Powder! 💚
+If you know me, you know I’m obsessed with matcha and it’s so important for health benefits that the matcha is cermonial grade 🍵</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2.456692913385826</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.015748031496063</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4409448818897638</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.2519685039370079</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@miaafosterrr/video/7452118552665935136</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>839</v>
+      </c>
+      <c r="C11" t="n">
+        <v>64</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>6</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>말차 파우더로 아이스 바닐라 말차를 만들어 주세요!💚 저를 아신다면, 제가 말차에 집착하고 건강상의 이점에 있어서 말차가 자궁경부 등급이라는 것을 아실 겁니다🍵 👉🏼틱톡 샵에서 이 슈퍼셀프 유기농 말차를 할인된 가격에 구입하세요!</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>9.296781883194278</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>7.628128724672228</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>1.66865315852205</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L11" t="n">
         <v>0.7151370679380215</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-01-16</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7443225561339563297</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B12" t="n">
         <v>1569</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C12" t="n">
         <v>60</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D12" t="n">
         <v>11</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>1</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>오랜 세월 동안 컬러 와우의 드림 코트를 입어보고 싶었습니다! !! 🤍 이 TikTok 독점 번들에는 Color 와우의 베스트셀러인 Dream Coat SuperNatural 스프레이와 Extra Mist-ical Shine 스프레이가 포함되어 있습니다!</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>4.525175270873167</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>3.824091778202677</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.7010834926704907</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L12" t="n">
         <v>0.06373486297004462</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2024-12-25</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7440221505662815521</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B13" t="n">
         <v>1119</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C13" t="n">
         <v>121</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D13" t="n">
         <v>19</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>6</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>오랜 세월 동안 컬러 와우의 드림 코트를 입어보고 싶었습니다! !! 🤍 이 TikTok 독점 번들에는 Color 와우의 베스트셀러인 Dream Coat SuperNatural 스프레이와 Extra Mist-ical Shine 스프레이가 포함되어 있습니다!</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>12.51117068811439</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>10.81322609472744</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>1.697944593386953</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L13" t="n">
         <v>0.5361930294906166</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2024-12-1</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7438539239064669472</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B14" t="n">
         <v>1835</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>74</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D14" t="n">
         <v>14</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>4</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>블랙 프라이데이 이벤트🖤최대 40% 할인된 가격으로 틱톡 샵 쇼케이스를 통해 링크된 영국 래쉬 제품을 쇼핑하세요!</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>4.795640326975477</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>4.032697547683924</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.7629427792915531</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L14" t="n">
         <v>0.217983651226158</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2024-11-23</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7436784124603403553</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B15" t="n">
         <v>1333</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C15" t="n">
         <v>46</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>15</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>3</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>🤍의 이 핸드폰 케이스는 얼마나 귀엽습니까? 15% Burga 할인 코드 - 링크를 통해 "MIAFXUK"https://get.aspr.app/SHm2c 아이폰 케이스 디자인은 "나인 라이프" 버가 폰 케이스 | 애플 아이폰 | 아이폰 16 프로 맥스 | 언박싱 비디오 | 고양이</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>4.576144036009002</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>3.45086271567892</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1.125281320330082</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L15" t="n">
         <v>0.2250562640660165</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2024-11-18</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/photo/7435300152589438241</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B16" t="n">
         <v>3591</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C16" t="n">
         <v>111</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D16" t="n">
         <v>18</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>1</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>It’s leopard print season 🤎 @PEPPERMAYO #peppermayo #leopardprint #winter #autumn #fallfashion #autumnvibes #winterfashion</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>3.592314118629908</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I16" t="n">
         <v>3.091060985797828</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.5012531328320802</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L16" t="n">
         <v>0.0278473962684489</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2024-11-14</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7434684547574402336</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B17" t="n">
         <v>4250</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C17" t="n">
         <v>171</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D17" t="n">
         <v>15</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>12</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>호피무늬 시즌입니다 🤎 @PEPPERMAYO #peppermayo #leopardprint #winter #autumn #fallfashion</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H17" t="n">
         <v>4.376470588235295</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I17" t="n">
         <v>4.023529411764706</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.3529411764705883</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L17" t="n">
         <v>0.2823529411764706</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2024-11-10</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7431690117703552289</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B18" t="n">
         <v>2938</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C18" t="n">
         <v>56</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D18" t="n">
         <v>13</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>4</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>정말 아름다운 핸드폰 케이스💋 15% Burga 할인 코드 - 링크를 통해 "MIAFXUK"https://get.aspr.app/SHm2c 아이폰 케이스 디자인은 "사이렌" 엘리트 iPhone 케이스는 충격 흡수 및 향상된 그립을 포함하여 개선되고 강력한 전화 및 카메라 보호 기능을 제공합니다. 버가 폰 케이스 | 애플 아이폰 | 아이폰 16 프로 맥스 | 언박싱 비디오 |</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H18" t="n">
         <v>2.34853641933288</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I18" t="n">
         <v>1.906058543226685</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.4424778761061947</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L18" t="n">
         <v>0.136147038801906</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2024-11-8</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7426763762742463777</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B19" t="n">
         <v>3377</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C19" t="n">
         <v>190</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D19" t="n">
         <v>29</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>10</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>이 빨간 캐리건은 나의 새로운 가을 주식이다🍒 체리 레드 가디건 | 가을 옷장 | 가을 옷장 | 니트 | 청키 니트 | 겨울 옷장 | 가을 패션 | 페퍼마요</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H19" t="n">
         <v>6.485045898726681</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I19" t="n">
         <v>5.626295528575659</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.8587503701510216</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L19" t="n">
         <v>0.2961208172934557</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2024-10-31</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7424203002728205600</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B20" t="n">
         <v>972</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C20" t="n">
         <v>98</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D20" t="n">
         <v>11</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>14</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>내 한국 스킨케어 제품을 나와 함께 개봉하세요! 🫧💗🫶🏼 제품은 틱톡 샵에서 구할 수 있습니다 - 메디큐브는 한국의 스킨케어와 기술로 유명합니다. 그들은 친절하게 나에게 그들의 제품 중 일부를 선물했고 나는 그것을 시도하기를 기다릴 수 없습니다. 🫧 R 부스터 프로!!!! 🫧제로 모공 패드 🫧콜라겐 젤리 크림 🫧콜라겐 나이트 랩핑 마스크 🫧제로 엑소솜 샷 🫧 깊은 비타민 C 토너 패드 🫧PDRN 핑크 콜라겐 젤 마스크</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H20" t="n">
         <v>11.21399176954733</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I20" t="n">
         <v>10.08230452674897</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>1.131687242798354</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L20" t="n">
         <v>1.440329218106996</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2024-10-18</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7423905315831237921</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B21" t="n">
         <v>765</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C21" t="n">
         <v>39</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>프리 소울 피치 그린🍏🥦🥒🥬 채소에 대한 좋은 말을 너무 많이 들어서 빨리 먹어보고 싶어요... ⚡여성용으로 특별히 제작되었습니다. ⚡ 팽만감을 방지하기 위해 호르몬과 소화를 지원합니다. 에너지와 면역력을 지원하는 21가지 영양소 밀도가 높은 채소 ⚡ ⚡자연발생 비타민 및 미네랄 ⚡ KSM-66 Ashwagandha, Actazin 및 Livaux Golden Kiwi 포함 복숭아와 망고 맛으로 TikTok 샵에서 구입할 수 있습니다! 🫶🏼</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5.88235294117647</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.098039215686274</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.7843137254901961</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.261437908496732</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>2024-10-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@miaafosterrr/video/7413496067997699360</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1431</v>
-      </c>
-      <c r="C21" t="n">
-        <v>37</v>
       </c>
       <c r="D21" t="n">
         <v>6</v>
@@ -1480,401 +1491,401 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>프리 소울 피치 그린🍏🥦🥒🥬 채소에 대한 좋은 말을 너무 많이 들어서 빨리 먹어보고 싶어요... ⚡여성용으로 특별히 제작되었습니다. ⚡ 팽만감을 방지하기 위해 호르몬과 소화를 지원합니다. 에너지와 면역력을 지원하는 21가지 영양소 밀도가 높은 채소 ⚡ ⚡자연발생 비타민 및 미네랄 ⚡ KSM-66 Ashwagandha, Actazin 및 Livaux Golden Kiwi 포함 복숭아와 망고 맛으로 TikTok 샵에서 구입할 수 있습니다! 🫶🏼</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5.88235294117647</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.098039215686274</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.7843137254901961</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.261437908496732</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2024-10-11</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@miaafosterrr/video/7413496067997699360</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1431</v>
+      </c>
+      <c r="C22" t="n">
+        <v>37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>1</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>프리 소울 피치 그린🍏🥦🥒🥬 채소에 대한 좋은 말을 너무 많이 들어서 빨리 먹어보고 싶어요... ⚡여성용으로 특별히 제작되었습니다. ⚡ 팽만감을 방지하기 위해 호르몬과 소화를 지원합니다. 에너지와 면역력을 지원하는 21가지 영양소 밀도가 높은 채소 ⚡ ⚡자연발생 비타민 및 미네랄 ⚡ KSM-66 Ashwagandha, Actazin 및 Livaux Golden Kiwi 포함 복숭아와 망고 맛으로 TikTok 샵에서 구입할 수 있습니다! 🫶🏼</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>3.004891684136967</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I22" t="n">
         <v>2.585604472396925</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.419287211740042</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L22" t="n">
         <v>0.06988120195667365</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2024-10-10</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7412763582741450016</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>1754</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C23" t="n">
         <v>160</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
         <v>4</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>2</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Vieve Roadshow 메이크업 팝업, 리버풀🤍 멋진 팀은 새로운 스킨 노바 콤플렉스 밤의 개인 쉐이드 매치를 제공했습니다 - 나는 사랑스러운 에린과 쉐이드 매치를 얻었습니다✨ 우리는 현실에서 너무 사랑스럽고 더 멋진 아름다운 사람을 만났습니다!🫶🏼 📍리버풀 ONE, 파라다이스 플레이스, 리버풀, L18JQ 9월 6일 금요일 오전 10시 - 오후 7시</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H23" t="n">
         <v>9.350057012542759</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I23" t="n">
         <v>9.122006841505131</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.2280501710376283</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L23" t="n">
         <v>0.1140250855188141</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2024-9-12</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/photo/7412413054387768609</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B24" t="n">
         <v>1492</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C24" t="n">
         <v>195</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D24" t="n">
         <v>6</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>10</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>말로르카와 이 아름다운 장소와 사랑에 빠졌습니다 - cala d'or의 casa esmeralda#mallorca #spain #calador</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H24" t="n">
         <v>13.47184986595174</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I24" t="n">
         <v>13.06970509383378</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.4021447721179625</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L24" t="n">
         <v>0.6702412868632708</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2024-9-10</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7407929590301199649</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B25" t="n">
         <v>1680</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C25" t="n">
         <v>163</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D25" t="n">
         <v>4</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>16</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>7월에 Mallorca에서 일주일을 보낸 후 내 카메라 롤 마요르카에서 어디에 머물까요? 나는 Cala d'OR에 있는 o Aguamarina에 머물렀고 경치는 굉장했습니다. 사진 속 마요르카의 해변: - 칼라 에스메랄다 - 칼라 페레라 - 칼라 그란 비키니는 &lt;3 9월이나 10월에 마요르카로 돌아갈 준비가 되었습니다...</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>9.94047619047619</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I25" t="n">
         <v>9.702380952380953</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L25" t="n">
         <v>0.9523809523809524</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2024-9-9</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7399005840893660448</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B26" t="n">
         <v>9113</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C26" t="n">
         <v>209</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D26" t="n">
         <v>6</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>8</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>햇볕을 쬐고 긴 하루를 보낸 후 가장 친한 친구와 발코니에서 준비 &gt;&gt;&gt;#holiday #eurosummer #summer #girlsholiday</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>2.359266981235598</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I26" t="n">
         <v>2.29342697245693</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>0.06584000877866784</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L26" t="n">
         <v>0.08778667837155713</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2024-8-28</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7397774139873840416</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B27" t="n">
         <v>1082</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C27" t="n">
         <v>283</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D27" t="n">
         <v>15</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>29</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>칼라 도르 과일 남자는 실망시키지 않았다🥥🫶🏼 나는 그의 노래를 멈출 수 없다#calador #mallorca #fruitman #casaferrara</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H27" t="n">
         <v>27.54158964879852</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I27" t="n">
         <v>26.15526802218114</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>1.386321626617375</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L27" t="n">
         <v>2.680221811460259</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2024-8-4</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7386627087932607776</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B28" t="n">
         <v>848</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C28" t="n">
         <v>156</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D28" t="n">
         <v>18</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>4</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>이것을 시도하기를 기다릴 수 없습니다! 🫧🤍 @The Ordinary @Community X SEEN #theordinary #communityxseen</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H28" t="n">
         <v>20.5188679245283</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I28" t="n">
         <v>18.39622641509434</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>2.122641509433962</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L28" t="n">
         <v>0.4716981132075472</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2024-7-31</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/photo/7381856333651332385</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B29" t="n">
         <v>1041</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C29" t="n">
         <v>77</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>8</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>💋의 새로운 마스카라를 시험해 보기 정말 좋아요, 감사합니다 #ThrillSeekerExtreme #RimmelLondon @rimmellondon</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8.165225744476464</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7.396733909702209</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.7684918347742555</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.1921229586935639</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>2024-7-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@miaafosterrr/video/7376277923315191073</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>105800</v>
-      </c>
-      <c r="C29" t="n">
-        <v>57</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1884,294 +1895,294 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
+          <t>💋의 새로운 마스카라를 시험해 보기 정말 좋아요, 감사합니다 #ThrillSeekerExtreme #RimmelLondon @rimmellondon</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8.165225744476464</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7.396733909702209</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.7684918347742555</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.1921229586935639</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2024-7-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@miaafosterrr/video/7376277923315191073</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>105800</v>
+      </c>
+      <c r="C30" t="n">
+        <v>57</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>매끄러운 컬렉션 착용!🖤 Lovall의 생일 세일은 거의 모든 것을 최대 50% 할인합니다! @LOVALL #lovall #wearelovall</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H30" t="n">
         <v>0.05576559546313799</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I30" t="n">
         <v>0.05387523629489602</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.001890359168241966</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L30" t="n">
         <v>0.001890359168241966</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2024-6-18</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/photo/7354877630551821600</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B31" t="n">
         <v>12600</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C31" t="n">
         <v>1845</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D31" t="n">
         <v>7</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>67</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>매끄러운 컬렉션 착용!🖤 Lovall의 생일 세일은 거의 모든 것을 최대 50% 할인합니다! @LOVALL #lovall #wearelovall</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H31" t="n">
         <v>14.6984126984127</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I31" t="n">
         <v>14.64285714285714</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>0.05555555555555555</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L31" t="n">
         <v>0.5317460317460317</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2024-6-3</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7352833866492628257</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B32" t="n">
         <v>884</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C32" t="n">
         <v>254</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D32" t="n">
         <v>3</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>71</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>이 재킷에 집착! !!@TheRoom #ootd #theroomantwerp #redjacket</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H32" t="n">
         <v>29.07239819004525</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I32" t="n">
         <v>28.73303167420814</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.3393665158371041</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L32" t="n">
         <v>8.031674208144796</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2024-4-7</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7344398010824002849</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B33" t="n">
         <v>44800</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C33" t="n">
         <v>32</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D33" t="n">
         <v>5</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>1</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>이 헤어 제품들과 사랑에 빠졌어요! 🤍 @Community X SEEN @Aveda #doublecleansing #communityxseen #aveda</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>0.08258928571428571</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I33" t="n">
         <v>0.07142857142857142</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.01116071428571429</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L33" t="n">
         <v>0.002232142857142857</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2024-4-1</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7336923993741593888</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B34" t="n">
         <v>570</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C34" t="n">
         <v>898</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D34" t="n">
         <v>6</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>52</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Sisters and Seekers Liverpool sample sale queue ain’t the one #sistersandseekers #sistersandseekerssamplesale #liverpool #liverpoolone @Sisters &amp; Seekers</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H34" t="n">
         <v>158.5964912280702</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I34" t="n">
         <v>157.5438596491228</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>1.052631578947368</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L34" t="n">
         <v>9.12280701754386</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2024-3-10</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/photo/7290677969029221664</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B35" t="n">
         <v>2619</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C35" t="n">
         <v>24</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2023 당신은 환상적이었습니다 x</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>0.9927453226422298</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.9163802978235969</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.07636502481863307</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.07636502481863307</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>2024-2-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@miaafosterrr/video/7281399693257526561</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1632</v>
-      </c>
-      <c r="C35" t="n">
-        <v>63</v>
       </c>
       <c r="D35" t="n">
         <v>2</v>
@@ -2180,301 +2191,301 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2023 당신은 환상적이었습니다 x</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>0.9927453226422298</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.9163802978235969</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.07636502481863307</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.07636502481863307</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2024-2-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@miaafosterrr/video/7281399693257526561</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1632</v>
+      </c>
+      <c r="C36" t="n">
+        <v>63</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>3</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>이 구절이 나에게 가지고 있는 보류 #doitfortheplot #meandthedevil</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H36" t="n">
         <v>3.982843137254902</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I36" t="n">
         <v>3.860294117647059</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.1225490196078431</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L36" t="n">
         <v>0.1838235294117647</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2023-10-17</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7247101213781576986</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B37" t="n">
         <v>865</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C37" t="n">
         <v>21</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D37" t="n">
         <v>1</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>5</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>지속 가능성, 지역 재능, 사랑스러운 커피 코너와 함께 느린 목적의 쇼핑을 홍보하기 🤍🌾 체스터에서 가장 멋진 컨셉 스토어를 방문했습니다! 집착</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H37" t="n">
         <v>2.543352601156069</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I37" t="n">
         <v>2.427745664739884</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>0.115606936416185</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L37" t="n">
         <v>0.5780346820809248</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2023-9-22</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7219245203901664518</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B38" t="n">
         <v>1777</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C38" t="n">
         <v>37</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D38" t="n">
         <v>5</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>8</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>지속 가능성, 지역 재능, 사랑스러운 커피 코너와 함께 느린 목적의 쇼핑을 홍보하기 🤍🌾 체스터에서 가장 멋진 컨셉 스토어를 방문했습니다! 집착</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H38" t="n">
         <v>2.363534046145189</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I38" t="n">
         <v>2.082160945413619</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>0.2813731007315701</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L38" t="n">
         <v>0.4501969611705121</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2023-6-21</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7213865582356139269</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B39" t="n">
         <v>830</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C39" t="n">
         <v>30</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D39" t="n">
         <v>1</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="inlineStr">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>오 나는 유혹을 받는다#CapCut</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H39" t="n">
         <v>3.734939759036145</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I39" t="n">
         <v>3.614457831325301</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.1204819277108434</v>
       </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2023-4-7</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7209357580194368774</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B40" t="n">
         <v>871</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C40" t="n">
         <v>23</v>
       </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>3</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>로레알의 히알루론적 범위💜@L’Oréal Paris @Rosalind Weinberg #lorealhyaluronic</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H40" t="n">
         <v>2.640642939150402</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I40" t="n">
         <v>2.640642939150402</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>0.3444316877152698</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2023-3-24</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7206383212963073285</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B41" t="n">
         <v>766</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C41" t="n">
         <v>104</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D41" t="n">
         <v>5</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>6</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>최고에게 둘러싸여</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>14.22976501305483</v>
-      </c>
-      <c r="I40" t="n">
-        <v>13.57702349869452</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.6527415143603132</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.7832898172323759</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>2023-3-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@miaafosterrr/video/7205304515464121605</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>1274</v>
-      </c>
-      <c r="C41" t="n">
-        <v>50</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -2484,44 +2495,44 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>에 의해 확보된 흥미로운 💜 보냈습니다.@L’Oréal Paris #lorealparis #lorealhyaluronic #lorealhyaluronicacid</t>
+          <t>최고에게 둘러싸여</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4.003139717425432</v>
+        <v>14.22976501305483</v>
       </c>
       <c r="I41" t="n">
-        <v>3.924646781789639</v>
+        <v>13.57702349869452</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.07849293563579278</v>
+        <v>0.6527415143603132</v>
       </c>
       <c r="L41" t="n">
-        <v>0.4709576138147566</v>
+        <v>0.7832898172323759</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2023-3-4</t>
+          <t>2023-3-12</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@miaafosterrr/video/7199566290367958277</t>
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@miaafosterrr/video/7205304515464121605</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639</v>
+        <v>1274</v>
       </c>
       <c r="C42" t="n">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -2534,244 +2545,244 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
+          <t>에 의해 확보된 흥미로운 💜 보냈습니다.@L’Oréal Paris #lorealparis #lorealhyaluronic #lorealhyaluronicacid</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4.003139717425432</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.924646781789639</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.07849293563579278</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.4709576138147566</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2023-3-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@miaafosterrr/video/7199566290367958277</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>639</v>
+      </c>
+      <c r="C43" t="n">
+        <v>39</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>보석!! 🌟 대담한 헤링본 체인 목걸이와 샬롯 대담한 후프@Mejuri #mejuri #mejuripartner #finecrew #goldhoops</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H43" t="n">
         <v>6.259780907668231</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I43" t="n">
         <v>6.103286384976526</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>0.1564945226917058</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L43" t="n">
         <v>0.9389671361502347</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2023-3-1</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7158955118296108293</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B44" t="n">
         <v>6598</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C44" t="n">
         <v>24</v>
       </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>5</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>발렌타인 네일💌 반지 착용 - 코드 LOVE-DACB 25% 할인 @Monica Vinader #valentine #valentinesday #nails</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H44" t="n">
         <v>0.3637465898757199</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I44" t="n">
         <v>0.3637465898757199</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
         <v>0.07578053955744166</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2023-2-13</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7157406977595919621</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B45" t="n">
         <v>380500</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C45" t="n">
         <v>100</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D45" t="n">
         <v>3</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>13</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>왜 아무도 나에게 Zara MENS에서 쇼핑하라고 말하지 않았습니까? !!! 재킷!! 🫶🏼#zara #jackets #zaramen #fashion #zarahaul</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H45" t="n">
         <v>0.02706964520367937</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I45" t="n">
         <v>0.02628120893561104</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.0007884362680683311</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L45" t="n">
         <v>0.003416557161629434</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2022-10-27</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7155879133594111238</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B46" t="n">
         <v>788</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C46" t="n">
         <v>16200</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D46" t="n">
         <v>46</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>1415</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>음 난 이 재킷에 푹 빠졌어 🫶🏼 #zara #zaramen #racingjacket #fallfashion #winterfashion #jacket #zarahaul #fashion</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H46" t="n">
         <v>2061.675126903553</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I46" t="n">
         <v>2055.837563451777</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>5.83756345177665</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L46" t="n">
         <v>179.5685279187817</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2022-10-23</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7155607506075520262</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B47" t="n">
         <v>705</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C47" t="n">
         <v>6</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>멋진 팔로마 라지 후프와 아마이아 미디엄 후프는 코드 "miafoster10"과 링크로 10% 할인된 ✨ 바이오에 있습니다.</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>0.9929078014184398</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.851063829787234</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.1418439716312057</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.1418439716312057</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2022-10-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@miaafosterrr/video/7151739016084294918</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>729</v>
-      </c>
-      <c r="C47" t="n">
-        <v>7</v>
       </c>
       <c r="D47" t="n">
         <v>1</v>
@@ -2780,151 +2791,151 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>멋진 팔로마 라지 후프와 아마이아 미디엄 후프는 코드 "miafoster10"과 링크로 10% 할인된 ✨ 바이오에 있습니다.</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>0.9929078014184398</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.851063829787234</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.1418439716312057</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.1418439716312057</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2022-10-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@miaafosterrr/video/7151739016084294918</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>729</v>
+      </c>
+      <c r="C48" t="n">
+        <v>7</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>2</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Gold Vermeil과 Silver의 Cassidy Ring은 "miafoster10"으로 10% 할인 ✨ 바이오에 링크가 있습니다.@caratlondon</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H48" t="n">
         <v>1.097393689986282</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I48" t="n">
         <v>0.9602194787379973</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.1371742112482853</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L48" t="n">
         <v>0.2743484224965706</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2022-10-18</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7149307571134844166</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B49" t="n">
         <v>665</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C49" t="n">
         <v>28</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D49" t="n">
         <v>6</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" t="inlineStr">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>다시 금발로 가고 싶은 유혹...#blonde #hair</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H49" t="n">
         <v>5.112781954887218</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I49" t="n">
         <v>4.210526315789473</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>0.9022556390977444</v>
       </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2022-10-7</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@miaafosterrr/video/7147663849930460422</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B50" t="n">
         <v>634</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C50" t="n">
         <v>27</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D50" t="n">
         <v>3</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>나는 이 드레스와 사랑에 빠졌다#summer #summerfashion #superdry #summerdress #sdambassador #greece</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>4.73186119873817</v>
-      </c>
-      <c r="I49" t="n">
-        <v>4.258675078864353</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.473186119873817</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.1577287066246057</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2022-10-1</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@miaafosterrr/video/7146592318047522053</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>24500</v>
-      </c>
-      <c r="C50" t="n">
-        <v>10</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
@@ -2938,24 +2949,74 @@
         </is>
       </c>
       <c r="H50" t="n">
+        <v>4.73186119873817</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4.258675078864353</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.473186119873817</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.1577287066246057</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2022-10-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@miaafosterrr/video/7146592318047522053</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>24500</v>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>나는 이 드레스와 사랑에 빠졌다#summer #summerfashion #superdry #summerdress #sdambassador #greece</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
         <v>0.04081632653061225</v>
       </c>
-      <c r="I50" t="n">
+      <c r="I51" t="n">
         <v>0.04081632653061225</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
         <v>0.004081632653061225</v>
       </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2022-9-26</t>
         </is>
